--- a/khanhnq16/update.xlsx
+++ b/khanhnq16/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -63,6 +63,12 @@
   <si>
     <t>- Sửa lại màn hình http://124.158.12.89:7007/mode/index như ảnh trong thư mục
 - Html lấy ở file của Việt</t>
+  </si>
+  <si>
+    <t>Timer/counter</t>
+  </si>
+  <si>
+    <t>Màn hình hiển thị và cập nhật như hình ảnh trong folder</t>
   </si>
 </sst>
 </file>
@@ -166,9 +172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -183,9 +186,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -203,9 +212,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -515,113 +521,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="43.5">
-      <c r="A5" s="7">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="29">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="58" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="58" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/khanhnq16/update.xlsx
+++ b/khanhnq16/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Màn hình hiển thị và cập nhật như hình ảnh trong folder</t>
+  </si>
+  <si>
+    <t>Để sau cũng được</t>
   </si>
 </sst>
 </file>
@@ -92,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -189,8 +198,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -518,6 +527,7 @@
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="73.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -564,13 +574,15 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6">
@@ -591,7 +603,7 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="8"/>
@@ -601,9 +613,7 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="58" customHeight="1">
@@ -611,7 +621,7 @@
       <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="58" customHeight="1">
@@ -619,7 +629,7 @@
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4">
@@ -644,12 +654,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/khanhnq16/update.xlsx
+++ b/khanhnq16/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -72,13 +72,16 @@
   </si>
   <si>
     <t>Để sau cũng được</t>
+  </si>
+  <si>
+    <t>Đã làm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +93,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,17 +205,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -207,20 +220,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -527,22 +549,22 @@
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="73.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -554,112 +576,115 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="29">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="58" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="58" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/khanhnq16/update.xlsx
+++ b/khanhnq16/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Thêm biểu tượng ajax xoay cho 2 ô check data và check acc</t>
-  </si>
-  <si>
-    <t>17/12</t>
   </si>
   <si>
     <t>Menu cảnh báo</t>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Đã làm</t>
+  </si>
+  <si>
+    <t>Tạo dữ liệu để show report</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -217,31 +217,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,42 +550,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
     <col min="2" max="2" width="73.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -581,100 +593,112 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="78" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="29">
-      <c r="A5" s="5">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>10</v>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" ht="58" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="12" t="s">
-        <v>13</v>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="58" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="20">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="C13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/khanhnq16/update.xlsx
+++ b/khanhnq16/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -30,51 +30,26 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>18/12</t>
-  </si>
-  <si>
     <t>Output mode &amp; param config: update và create đưa về 1 form chung, hiện tại để thành 2 form rất khó update cho sau này.</t>
   </si>
   <si>
-    <t>Thêm biểu tượng ajax xoay cho 2 ô check data và check acc</t>
-  </si>
-  <si>
-    <t>Menu cảnh báo</t>
-  </si>
-  <si>
     <t>19/12</t>
   </si>
   <si>
-    <t>Table: modules &amp; alarm</t>
-  </si>
-  <si>
-    <t>Khi vào view thông số chi tiết của một module http://124.158.12.89:7007/modules/view?id=128 thì menu cảnh báo chỉ hiển thị của module đó</t>
-  </si>
-  <si>
     <t>HOÀN THIÊN CHỨC NĂNG</t>
-  </si>
-  <si>
-    <t>- Khi ở home thì hiển thị count tất cả cảnh báo của modules lên. Ví dụ hiện tại hệ thống có 3 modules có cảnh báo tràn bể thì menu Over Tank hiển thị màu đỏ và (3) bên cạnh.
-- Khi click vào menu có cảnh báo thì list ra toàn bộ các module đang có cảnh báo đó.</t>
   </si>
   <si>
     <t>- Sửa lại màn hình http://124.158.12.89:7007/mode/index như ảnh trong thư mục
 - Html lấy ở file của Việt</t>
   </si>
   <si>
-    <t>Timer/counter</t>
-  </si>
-  <si>
-    <t>Màn hình hiển thị và cập nhật như hình ảnh trong folder</t>
-  </si>
-  <si>
-    <t>Để sau cũng được</t>
-  </si>
-  <si>
-    <t>Đã làm</t>
-  </si>
-  <si>
     <t>Tạo dữ liệu để show report</t>
+  </si>
+  <si>
+    <t>Output mode &amp; param config: khi click từ menu thì vào màn hình view, thể hiện như phần timer counter, phía dưới có nút setting để vào màn hình create/update</t>
+  </si>
+  <si>
+    <t>20/12</t>
   </si>
 </sst>
 </file>
@@ -105,9 +80,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,48 +123,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -208,9 +144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -223,39 +156,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,165 +475,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
     <col min="2" max="2" width="73.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="19" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="78" customHeight="1">
-      <c r="A4" s="20">
+    <row r="4" spans="1:5" ht="78" customHeight="1">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="78" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="29">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="29">
-      <c r="A5" s="21">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" ht="58" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="58" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="17">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="20">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9"/>
+      <c r="D7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="1">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/khanhnq16/update.xlsx
+++ b/khanhnq16/update.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="logs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -50,6 +50,54 @@
   </si>
   <si>
     <t>20/12</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>configuration_log</t>
+  </si>
+  <si>
+    <t>Bản tin</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>System Mode</t>
+  </si>
+  <si>
+    <t>Load Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramater </t>
+  </si>
+  <si>
+    <t>Timer/Counter</t>
+  </si>
+  <si>
+    <t>System mode 01</t>
+  </si>
+  <si>
+    <t>Load mode:  Convection Pump auto|Pump 1 Slave|Time wait for master pump 10|…</t>
+  </si>
+  <si>
+    <t>Paramater: Temperature range to turn on the Pump 10 0C|Water level M1 100 0C|…</t>
+  </si>
+  <si>
+    <t>Timer/counter: Counter 3|Confirm Timer (sec) 10|…</t>
+  </si>
+  <si>
+    <t>Nhân sự</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>28/12</t>
   </si>
 </sst>
 </file>
@@ -86,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -168,19 +222,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -490,18 +545,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
@@ -530,15 +585,15 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="78" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="29">
       <c r="A6" s="13">
@@ -575,13 +630,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18"/>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="18"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
